--- a/data/trans_camb/P19_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-7,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>13,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>13,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>14,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>21,85</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 7,64</t>
+          <t>-22,72; 7,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 5,69</t>
+          <t>-21,73; 9,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 11,38</t>
+          <t>-24,59; 7,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 5,94</t>
+          <t>-26,82; 6,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 5,4</t>
+          <t>-3,46; 31,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 4,44</t>
+          <t>-3,41; 33,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 2,66</t>
+          <t>-2,01; 32,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 1,6</t>
+          <t>7,57; 40,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 3,79</t>
+          <t>-8,07; 17,84</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,15; 18,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 19,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 21,24</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-27,44%</t>
+          <t>-6,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-39,92%</t>
+          <t>-6,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,77%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-32,89%</t>
+          <t>-8,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-28,46%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-29,19%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-31,23%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-34,42%</t>
+          <t>31,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-23,57%</t>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 108,47</t>
+          <t>-23,49; 8,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,67; 81,97</t>
+          <t>-22,89; 10,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,53; 153,98</t>
+          <t>-25,76; 8,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,46; 37,4</t>
+          <t>-28,14; 7,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,02; 37,46</t>
+          <t>-4,02; 58,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,15; 29,86</t>
+          <t>-4,23; 62,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,82; 19,0</t>
+          <t>-2,22; 60,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,22; 14,27</t>
+          <t>9,5; 75,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 24,77</t>
+          <t>-9,3; 25,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 28,43</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 27,14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 30,07</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,32</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,02</t>
+          <t>14,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>-22,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>12,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,78</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,44</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-7,24</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 1,9</t>
+          <t>-8,79; 42,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-33,18; 2,19</t>
+          <t>-4,08; 45,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 29,83</t>
+          <t>-52,2; 14,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 7,83</t>
+          <t>-1,04; 45,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 10,05</t>
+          <t>-9,62; 20,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 0,3</t>
+          <t>-14,15; 16,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 1,11</t>
+          <t>-1,0; 26,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 2,31</t>
+          <t>-3,29; 23,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 16,19</t>
+          <t>-2,54; 25,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 24,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-29,97; 13,71</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 29,04</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-45,95%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-48,79%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>-29,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,57%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-50,44%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-33,64%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,14%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,83%</t>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-9,4%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,72; 19,32</t>
+          <t>-9,76; 83,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,73; 20,32</t>
+          <t>-4,58; 90,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,34; 205,34</t>
+          <t>-63,15; 17,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,89; 64,55</t>
+          <t>-1,41; 90,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,73; 78,89</t>
+          <t>-11,14; 28,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,01; 11,81</t>
+          <t>-17,33; 23,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,79; 10,23</t>
+          <t>-1,11; 41,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,67; 16,41</t>
+          <t>-2,93; 36,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,8; 106,71</t>
+          <t>-3,2; 40,38</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 39,31</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-36,71; 18,17</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4,14; 46,87</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,01</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 26,38</t>
+          <t>-21,13; 8,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 1,49</t>
+          <t>-3,48; 21,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 4,56</t>
+          <t>-13,08; 14,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 2,76</t>
+          <t>-15,41; 14,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 6,02</t>
+          <t>-3,57; 15,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 3,39</t>
+          <t>-7,18; 13,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 11,08</t>
+          <t>-8,77; 12,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 1,13</t>
+          <t>1,57; 20,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 0,89</t>
+          <t>-7,33; 9,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 13,47</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 10,28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 13,62</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>-7,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-40,57%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-30,13%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-34,08%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-14,15%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,08%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-26,73%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-28,05%</t>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 171,32</t>
+          <t>-24,51; 11,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,19; 14,57</t>
+          <t>-3,65; 30,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 31,82</t>
+          <t>-14,7; 20,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 18,44</t>
+          <t>-17,91; 18,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,42; 38,19</t>
+          <t>-4,17; 21,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,5; 20,72</t>
+          <t>-8,14; 18,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 60,15</t>
+          <t>-10,03; 17,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,9; 6,99</t>
+          <t>2,1; 27,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,25; 4,96</t>
+          <t>-8,51; 12,27</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 17,95</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 13,54</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 17,91</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,47</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>-3,56</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 10,38</t>
+          <t>-19,27; 3,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 12,69</t>
+          <t>-17,86; 3,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 8,2</t>
+          <t>-9,09; 10,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 6,22</t>
+          <t>-8,04; 11,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 5,29</t>
+          <t>-11,51; 12,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -0,36</t>
+          <t>-10,23; 13,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 5,64</t>
+          <t>-5,1; 17,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 5,8</t>
+          <t>0,09; 21,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 1,54</t>
+          <t>-11,98; 3,84</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-10,62; 5,76</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 10,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 14,45</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>-7,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,88%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>-0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-33,52%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-24,24%</t>
+          <t>-4,4%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-2,78%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,59; 106,95</t>
+          <t>-21,13; 3,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 120,24</t>
+          <t>-19,26; 4,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-47,3; 77,5</t>
+          <t>-9,94; 12,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 29,82</t>
+          <t>-8,71; 13,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,48; 26,2</t>
+          <t>-14,47; 18,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,64; -1,02</t>
+          <t>-13,15; 19,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 32,69</t>
+          <t>-6,33; 25,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 33,49</t>
+          <t>0,12; 31,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-46,84; 10,0</t>
+          <t>-14,19; 4,94</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-12,65; 7,49</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 14,29</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 18,91</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,61</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>-13,74</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-3,11</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4,61</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 11,79</t>
+          <t>-16,65; 11,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 2,93</t>
+          <t>-9,56; 14,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 5,18</t>
+          <t>-13,21; 13,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 11,08</t>
+          <t>-5,06; 19,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 21,95</t>
+          <t>-20,69; 10,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 3,93</t>
+          <t>-31,7; 2,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 8,94</t>
+          <t>-12,35; 17,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 8,2</t>
+          <t>-12,92; 15,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 2,47</t>
+          <t>-13,5; 7,32</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-14,03; 6,81</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 10,15</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 14,0</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-36,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-20,57%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-32,04%</t>
+          <t>-16,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-26,11%</t>
+          <t>-3,79%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-4,55%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 85,94</t>
+          <t>-19,3; 15,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 24,46</t>
+          <t>-10,9; 19,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,08; 43,94</t>
+          <t>-14,99; 17,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,41; 85,91</t>
+          <t>-5,67; 25,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 174,99</t>
+          <t>-23,49; 14,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,37; 28,67</t>
+          <t>-36,3; 2,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 61,68</t>
+          <t>-14,26; 23,68</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 57,55</t>
+          <t>-14,76; 21,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,65; 15,45</t>
+          <t>-15,53; 9,32</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; 9,11</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; 13,25</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 18,25</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,44</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5,18</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 9,19</t>
+          <t>-16,87; 14,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 13,96</t>
+          <t>-16,25; 14,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-22,99; -0,13</t>
+          <t>-1,1; 23,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 14,3</t>
+          <t>-2,55; 21,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 7,27</t>
+          <t>-23,57; 15,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 13,59</t>
+          <t>-10,08; 22,64</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 8,64</t>
+          <t>-16,6; 18,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 6,08</t>
+          <t>-14,71; 21,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 5,12</t>
+          <t>-14,24; 10,21</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 13,66</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 17,6</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; 16,48</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-15,8%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>-1,64%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-58,85%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-28,11%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-6,54%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-4,52%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-14,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-23,98%</t>
+          <t>-2,13%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-63,16; 92,35</t>
+          <t>-18,29; 18,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-49,29; 135,86</t>
+          <t>-17,74; 18,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-88,98; 11,58</t>
+          <t>-1,23; 31,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 93,57</t>
+          <t>-2,54; 29,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-63,79; 46,7</t>
+          <t>-26,67; 22,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-57,36; 78,82</t>
+          <t>-11,3; 34,24</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-39,71; 56,13</t>
+          <t>-19,0; 27,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,59; 39,17</t>
+          <t>-16,84; 30,26</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-57,62; 30,45</t>
+          <t>-16,53; 13,19</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-10,55; 17,55</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 23,56</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-7,66; 22,15</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>7,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,41</t>
+          <t>-8,27; 5,51</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -0,56</t>
+          <t>-3,39; 10,33</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 3,92</t>
+          <t>-14,35; 4,8</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 1,02</t>
+          <t>-1,21; 12,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,64</t>
+          <t>-2,42; 9,14</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-10,99; -2,0</t>
+          <t>-3,18; 8,27</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 1,74</t>
+          <t>0,37; 12,83</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -0,12</t>
+          <t>4,15; 15,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,93; -0,63</t>
+          <t>-3,39; 5,35</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 7,08</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 6,26</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 11,7</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>-2,62%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-13,7%</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-16,23%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-11,45%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-28,65%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-9,7%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-22,1%</t>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 31,96</t>
+          <t>-9,46; 6,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-44,58; -2,77</t>
+          <t>-3,89; 13,1</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 23,55</t>
+          <t>-16,71; 5,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 5,99</t>
+          <t>-1,39; 16,41</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 8,34</t>
+          <t>-2,95; 12,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-46,28; -10,67</t>
+          <t>-4,07; 11,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 9,64</t>
+          <t>0,58; 17,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-31,09; -0,62</t>
+          <t>5,21; 20,75</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-36,1; -3,08</t>
+          <t>-4,1; 6,88</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 9,2</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 7,96</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 15,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
